--- a/data/ladies.xlsx
+++ b/data/ladies.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3B93C2-C27B-410D-878C-EFA1533BBE8F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982C1EA9-C4AB-43B1-BB78-994C4AB44E2D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -656,6 +656,9 @@
       <c r="B3" t="s">
         <v>24</v>
       </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
       <c r="D3">
         <v>23</v>
       </c>
